--- a/Invoice Report.xlsx
+++ b/Invoice Report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O241"/>
+  <dimension ref="A1:H279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,41 +469,6 @@
           <t>file_name</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0.6</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0.5</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0.4</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0.3</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0.2</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0.1</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -542,13 +507,6 @@
           <t>Programa ATSOURCE - Olam 3.pdf</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -587,13 +545,6 @@
           <t>Programa ATSOURCE - Olam 3.pdf</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -632,13 +583,6 @@
           <t>Programa ATSOURCE - Olam 3.pdf</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -677,13 +621,6 @@
           <t>Programa ATSOURCE - Olam 3.pdf</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -722,13 +659,6 @@
           <t>Programa ATSOURCE - Olam 3.pdf</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -767,13 +697,6 @@
           <t>Programa ATSOURCE - Olam 3.pdf</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -812,13 +735,6 @@
           <t>Programa ATSOURCE - Olam 3.pdf</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -857,13 +773,6 @@
           <t>Programa ATSOURCE - Olam 3.pdf</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -902,13 +811,6 @@
           <t>Programa ATSOURCE - Olam 3.pdf</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -947,13 +849,6 @@
           <t>Programa ATSOURCE - Olam 3.pdf</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -992,13 +887,6 @@
           <t>Programa ATSOURCE - Olam 3.pdf</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1037,13 +925,6 @@
           <t>Programa ATSOURCE - Olam 3.pdf</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1082,13 +963,6 @@
           <t>Programa ATSOURCE - Olam 3.pdf</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1127,13 +1001,6 @@
           <t>Programa ATSOURCE - Olam 3.pdf</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1172,13 +1039,6 @@
           <t>Programa ATSOURCE - Olam 3.pdf</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1217,13 +1077,6 @@
           <t>Programa ATSOURCE - Olam 3.pdf</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1262,13 +1115,6 @@
           <t>Programa ATSOURCE - Olam 3.pdf</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1307,13 +1153,6 @@
           <t>Programa ATSOURCE - Olam 3.pdf</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1352,13 +1191,6 @@
           <t>Programa ATSOURCE - Olam 3.pdf</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1397,13 +1229,6 @@
           <t>Programa ATSOURCE - Olam 3.pdf</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1442,13 +1267,6 @@
           <t>Programa ATSOURCE - Olam 3.pdf</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1487,13 +1305,6 @@
           <t>Programa ATSOURCE - Olam 3.pdf</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1532,13 +1343,6 @@
           <t>Programa ATSOURCE - Olam 3.pdf</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1577,13 +1381,6 @@
           <t>Programa ATSOURCE - Olam 3.pdf</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1622,13 +1419,6 @@
           <t>Programa ATSOURCE - Olam 3.pdf</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1667,13 +1457,6 @@
           <t>Programa ATSOURCE - Olam 3.pdf</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1712,13 +1495,6 @@
           <t>Programa ATSOURCE - Olam 3.pdf</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1757,13 +1533,6 @@
           <t>Programa ATSOURCE - Olam 3.pdf</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1802,13 +1571,6 @@
           <t>Programa ATSOURCE - Olam 3.pdf</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1847,13 +1609,6 @@
           <t>Programa ATSOURCE - Olam 3.pdf</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1892,13 +1647,6 @@
           <t>Programa ATSOURCE - Olam 3.pdf</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1937,13 +1685,6 @@
           <t>Programa ATSOURCE - Olam 3.pdf</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1982,13 +1723,6 @@
           <t>Programa ATSOURCE - Olam 3.pdf</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2027,13 +1761,6 @@
           <t>Programa ATSOURCE - Olam 3.pdf</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2072,13 +1799,6 @@
           <t>Programa ATSOURCE - Olam 3.pdf</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2117,13 +1837,6 @@
           <t>Programa ATSOURCE - Olam 3.pdf</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2162,13 +1875,6 @@
           <t>Programa ATSOURCE - Olam 3.pdf</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2207,13 +1913,6 @@
           <t>Programa ATSOURCE - Olam 3.pdf</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2252,13 +1951,6 @@
           <t>Programa ATSOURCE - Olam 3.pdf</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2297,13 +1989,6 @@
           <t>Programa ATSOURCE - Olam 3.pdf</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2342,13 +2027,6 @@
           <t>Programa ATSOURCE - Olam 3.pdf</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2387,13 +2065,6 @@
           <t>Programa ATSOURCE - Olam 3.pdf</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2432,13 +2103,6 @@
           <t>Programa ATSOURCE - Olam 3.pdf</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2477,13 +2141,6 @@
           <t>Programa ATSOURCE - Olam 3.pdf</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2522,13 +2179,6 @@
           <t>Programa ATSOURCE - Olam 3.pdf</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2567,13 +2217,6 @@
           <t>Programa ATSOURCE - Olam 3.pdf</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2612,13 +2255,6 @@
           <t>Programa ATSOURCE - Olam 3.pdf</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2657,13 +2293,6 @@
           <t>Programa ATSOURCE - Olam 3.pdf</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2702,13 +2331,6 @@
           <t>Programa ATSOURCE - Olam 3.pdf</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2747,13 +2369,6 @@
           <t>Programa ATSOURCE - Olam 3.pdf</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2792,13 +2407,6 @@
           <t>Programa ATSOURCE - Olam 3.pdf</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2837,15 +2445,6 @@
           <t>Programa ATSOURCE - Olam 2.pdf</t>
         </is>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2884,15 +2483,6 @@
           <t>Programa ATSOURCE - Olam 2.pdf</t>
         </is>
       </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2931,15 +2521,6 @@
           <t>Programa ATSOURCE - Olam 2.pdf</t>
         </is>
       </c>
-      <c r="I55" t="n">
-        <v>2</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2978,15 +2559,6 @@
           <t>Programa ATSOURCE - Olam 2.pdf</t>
         </is>
       </c>
-      <c r="I56" t="n">
-        <v>3</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3025,15 +2597,6 @@
           <t>Programa ATSOURCE - Olam 2.pdf</t>
         </is>
       </c>
-      <c r="I57" t="n">
-        <v>4</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3072,15 +2635,6 @@
           <t>Programa ATSOURCE - Olam 2.pdf</t>
         </is>
       </c>
-      <c r="I58" t="n">
-        <v>5</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3119,15 +2673,6 @@
           <t>Programa ATSOURCE - Olam 2.pdf</t>
         </is>
       </c>
-      <c r="I59" t="n">
-        <v>6</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3166,15 +2711,6 @@
           <t>Programa ATSOURCE - Olam 2.pdf</t>
         </is>
       </c>
-      <c r="I60" t="n">
-        <v>7</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3213,15 +2749,6 @@
           <t>Programa ATSOURCE - Olam 2.pdf</t>
         </is>
       </c>
-      <c r="I61" t="n">
-        <v>8</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3260,15 +2787,6 @@
           <t>Programa ATSOURCE - Olam 2.pdf</t>
         </is>
       </c>
-      <c r="I62" t="n">
-        <v>9</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3307,15 +2825,6 @@
           <t>Programa ATSOURCE - Olam 2.pdf</t>
         </is>
       </c>
-      <c r="I63" t="n">
-        <v>10</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3354,15 +2863,6 @@
           <t>Programa ATSOURCE - Olam 2.pdf</t>
         </is>
       </c>
-      <c r="I64" t="n">
-        <v>11</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3401,15 +2901,6 @@
           <t>Programa ATSOURCE - Olam 2.pdf</t>
         </is>
       </c>
-      <c r="I65" t="n">
-        <v>12</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3448,15 +2939,6 @@
           <t>Programa ATSOURCE - Olam 2.pdf</t>
         </is>
       </c>
-      <c r="I66" t="n">
-        <v>13</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3495,15 +2977,6 @@
           <t>Programa ATSOURCE - Olam 2.pdf</t>
         </is>
       </c>
-      <c r="I67" t="n">
-        <v>14</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3542,15 +3015,6 @@
           <t>Programa ATSOURCE - Olam 2.pdf</t>
         </is>
       </c>
-      <c r="I68" t="n">
-        <v>15</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3589,15 +3053,6 @@
           <t>Programa ATSOURCE - Olam 2.pdf</t>
         </is>
       </c>
-      <c r="I69" t="n">
-        <v>16</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3636,15 +3091,6 @@
           <t>Programa ATSOURCE - Olam 2.pdf</t>
         </is>
       </c>
-      <c r="I70" t="n">
-        <v>17</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3683,15 +3129,6 @@
           <t>Programa ATSOURCE - Olam 2.pdf</t>
         </is>
       </c>
-      <c r="I71" t="n">
-        <v>18</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3730,15 +3167,6 @@
           <t>Programa ATSOURCE - Olam 2.pdf</t>
         </is>
       </c>
-      <c r="I72" t="n">
-        <v>19</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3777,15 +3205,6 @@
           <t>Programa ATSOURCE - Olam 2.pdf</t>
         </is>
       </c>
-      <c r="I73" t="n">
-        <v>20</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3824,15 +3243,6 @@
           <t>Programa ATSOURCE - Olam 2.pdf</t>
         </is>
       </c>
-      <c r="I74" t="n">
-        <v>21</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
-      <c r="O74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3871,15 +3281,6 @@
           <t>Programa ATSOURCE - Olam 2.pdf</t>
         </is>
       </c>
-      <c r="I75" t="n">
-        <v>22</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
-      <c r="O75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3918,15 +3319,6 @@
           <t>Programa ATSOURCE - Olam 2.pdf</t>
         </is>
       </c>
-      <c r="I76" t="n">
-        <v>23</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
-      <c r="O76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3965,15 +3357,6 @@
           <t>Programa ATSOURCE - Olam 2.pdf</t>
         </is>
       </c>
-      <c r="I77" t="n">
-        <v>24</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4012,15 +3395,6 @@
           <t>Programa ATSOURCE - Olam 2.pdf</t>
         </is>
       </c>
-      <c r="I78" t="n">
-        <v>25</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="inlineStr"/>
-      <c r="O78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4059,15 +3433,6 @@
           <t>Programa ATSOURCE - Olam 2.pdf</t>
         </is>
       </c>
-      <c r="I79" t="n">
-        <v>26</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="inlineStr"/>
-      <c r="O79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4106,15 +3471,6 @@
           <t>Programa ATSOURCE - Olam 2.pdf</t>
         </is>
       </c>
-      <c r="I80" t="n">
-        <v>27</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr"/>
-      <c r="O80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -4153,15 +3509,6 @@
           <t>Programa ATSOURCE - Olam 2.pdf</t>
         </is>
       </c>
-      <c r="I81" t="n">
-        <v>28</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="inlineStr"/>
-      <c r="O81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4200,15 +3547,6 @@
           <t>Programa ATSOURCE - Olam 2.pdf</t>
         </is>
       </c>
-      <c r="I82" t="n">
-        <v>29</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr"/>
-      <c r="O82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -4247,15 +3585,6 @@
           <t>Programa ATSOURCE - Olam 2.pdf</t>
         </is>
       </c>
-      <c r="I83" t="n">
-        <v>30</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="inlineStr"/>
-      <c r="O83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -4294,15 +3623,6 @@
           <t>Programa ATSOURCE - Olam 2.pdf</t>
         </is>
       </c>
-      <c r="I84" t="n">
-        <v>31</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr"/>
-      <c r="O84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -4341,15 +3661,6 @@
           <t>Programa ATSOURCE - Olam 2.pdf</t>
         </is>
       </c>
-      <c r="I85" t="n">
-        <v>32</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4388,17 +3699,6 @@
           <t>Programa ATSOURCE - Olam 1.pdf</t>
         </is>
       </c>
-      <c r="I86" t="n">
-        <v>33</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4437,17 +3737,6 @@
           <t>Programa ATSOURCE - Olam 1.pdf</t>
         </is>
       </c>
-      <c r="I87" t="n">
-        <v>34</v>
-      </c>
-      <c r="J87" t="n">
-        <v>1</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr"/>
-      <c r="O87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4486,17 +3775,6 @@
           <t>Programa ATSOURCE - Olam 1.pdf</t>
         </is>
       </c>
-      <c r="I88" t="n">
-        <v>35</v>
-      </c>
-      <c r="J88" t="n">
-        <v>2</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4535,17 +3813,6 @@
           <t>Programa ATSOURCE - Olam 1.pdf</t>
         </is>
       </c>
-      <c r="I89" t="n">
-        <v>36</v>
-      </c>
-      <c r="J89" t="n">
-        <v>3</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="inlineStr"/>
-      <c r="O89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4584,17 +3851,6 @@
           <t>Programa ATSOURCE - Olam 1.pdf</t>
         </is>
       </c>
-      <c r="I90" t="n">
-        <v>37</v>
-      </c>
-      <c r="J90" t="n">
-        <v>4</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr"/>
-      <c r="O90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4633,17 +3889,6 @@
           <t>Programa ATSOURCE - Olam 1.pdf</t>
         </is>
       </c>
-      <c r="I91" t="n">
-        <v>38</v>
-      </c>
-      <c r="J91" t="n">
-        <v>5</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="inlineStr"/>
-      <c r="O91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4682,17 +3927,6 @@
           <t>Programa ATSOURCE - Olam 1.pdf</t>
         </is>
       </c>
-      <c r="I92" t="n">
-        <v>39</v>
-      </c>
-      <c r="J92" t="n">
-        <v>6</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="inlineStr"/>
-      <c r="O92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4731,17 +3965,6 @@
           <t>Programa ATSOURCE - Olam 1.pdf</t>
         </is>
       </c>
-      <c r="I93" t="n">
-        <v>40</v>
-      </c>
-      <c r="J93" t="n">
-        <v>7</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="inlineStr"/>
-      <c r="O93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4780,17 +4003,6 @@
           <t>Programa ATSOURCE - Olam 1.pdf</t>
         </is>
       </c>
-      <c r="I94" t="n">
-        <v>41</v>
-      </c>
-      <c r="J94" t="n">
-        <v>8</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="inlineStr"/>
-      <c r="O94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4829,17 +4041,6 @@
           <t>Programa ATSOURCE - Olam 1.pdf</t>
         </is>
       </c>
-      <c r="I95" t="n">
-        <v>42</v>
-      </c>
-      <c r="J95" t="n">
-        <v>9</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="inlineStr"/>
-      <c r="O95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4878,17 +4079,6 @@
           <t>Programa ATSOURCE - Olam 1.pdf</t>
         </is>
       </c>
-      <c r="I96" t="n">
-        <v>43</v>
-      </c>
-      <c r="J96" t="n">
-        <v>10</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="inlineStr"/>
-      <c r="O96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4927,17 +4117,6 @@
           <t>Programa ATSOURCE - Olam 1.pdf</t>
         </is>
       </c>
-      <c r="I97" t="n">
-        <v>44</v>
-      </c>
-      <c r="J97" t="n">
-        <v>11</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="inlineStr"/>
-      <c r="O97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4976,17 +4155,6 @@
           <t>Programa ATSOURCE - Olam 1.pdf</t>
         </is>
       </c>
-      <c r="I98" t="n">
-        <v>45</v>
-      </c>
-      <c r="J98" t="n">
-        <v>12</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="inlineStr"/>
-      <c r="O98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -5025,17 +4193,6 @@
           <t>Programa ATSOURCE - Olam 1.pdf</t>
         </is>
       </c>
-      <c r="I99" t="n">
-        <v>46</v>
-      </c>
-      <c r="J99" t="n">
-        <v>13</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="inlineStr"/>
-      <c r="O99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -5074,17 +4231,6 @@
           <t>Programa ATSOURCE - Olam 1.pdf</t>
         </is>
       </c>
-      <c r="I100" t="n">
-        <v>47</v>
-      </c>
-      <c r="J100" t="n">
-        <v>14</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="inlineStr"/>
-      <c r="O100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -5123,17 +4269,6 @@
           <t>Programa ATSOURCE - Olam 1.pdf</t>
         </is>
       </c>
-      <c r="I101" t="n">
-        <v>48</v>
-      </c>
-      <c r="J101" t="n">
-        <v>15</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="inlineStr"/>
-      <c r="O101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -5172,17 +4307,6 @@
           <t>Programa ATSOURCE - Olam 1.pdf</t>
         </is>
       </c>
-      <c r="I102" t="n">
-        <v>49</v>
-      </c>
-      <c r="J102" t="n">
-        <v>16</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="inlineStr"/>
-      <c r="O102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -5221,17 +4345,6 @@
           <t>Programa ATSOURCE - Olam 1.pdf</t>
         </is>
       </c>
-      <c r="I103" t="n">
-        <v>50</v>
-      </c>
-      <c r="J103" t="n">
-        <v>17</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="inlineStr"/>
-      <c r="O103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -5270,17 +4383,6 @@
           <t>Programa ATSOURCE - Olam 1.pdf</t>
         </is>
       </c>
-      <c r="I104" t="n">
-        <v>51</v>
-      </c>
-      <c r="J104" t="n">
-        <v>18</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="inlineStr"/>
-      <c r="O104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -5319,17 +4421,6 @@
           <t>Programa ATSOURCE - Olam 1.pdf</t>
         </is>
       </c>
-      <c r="I105" t="n">
-        <v>52</v>
-      </c>
-      <c r="J105" t="n">
-        <v>19</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="inlineStr"/>
-      <c r="O105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -5368,17 +4459,6 @@
           <t>Programa ATSOURCE - Olam 1.pdf</t>
         </is>
       </c>
-      <c r="I106" t="n">
-        <v>53</v>
-      </c>
-      <c r="J106" t="n">
-        <v>20</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="inlineStr"/>
-      <c r="O106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -5417,17 +4497,6 @@
           <t>Programa ATSOURCE - Olam 1.pdf</t>
         </is>
       </c>
-      <c r="I107" t="n">
-        <v>54</v>
-      </c>
-      <c r="J107" t="n">
-        <v>21</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="inlineStr"/>
-      <c r="O107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -5466,17 +4535,6 @@
           <t>Programa ATSOURCE - Olam 1.pdf</t>
         </is>
       </c>
-      <c r="I108" t="n">
-        <v>55</v>
-      </c>
-      <c r="J108" t="n">
-        <v>22</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="inlineStr"/>
-      <c r="O108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -5515,17 +4573,6 @@
           <t>Programa ATSOURCE - Olam 1.pdf</t>
         </is>
       </c>
-      <c r="I109" t="n">
-        <v>56</v>
-      </c>
-      <c r="J109" t="n">
-        <v>23</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="inlineStr"/>
-      <c r="O109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -5564,17 +4611,6 @@
           <t>Programa ATSOURCE - Olam 1.pdf</t>
         </is>
       </c>
-      <c r="I110" t="n">
-        <v>57</v>
-      </c>
-      <c r="J110" t="n">
-        <v>24</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="inlineStr"/>
-      <c r="O110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5613,17 +4649,6 @@
           <t>Programa ATSOURCE - Olam 1.pdf</t>
         </is>
       </c>
-      <c r="I111" t="n">
-        <v>58</v>
-      </c>
-      <c r="J111" t="n">
-        <v>25</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="inlineStr"/>
-      <c r="O111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5662,17 +4687,6 @@
           <t>Programa ATSOURCE - Olam 1.pdf</t>
         </is>
       </c>
-      <c r="I112" t="n">
-        <v>59</v>
-      </c>
-      <c r="J112" t="n">
-        <v>26</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="inlineStr"/>
-      <c r="O112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5711,17 +4725,6 @@
           <t>Programa ATSOURCE - Olam 1.pdf</t>
         </is>
       </c>
-      <c r="I113" t="n">
-        <v>60</v>
-      </c>
-      <c r="J113" t="n">
-        <v>27</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="inlineStr"/>
-      <c r="O113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5760,17 +4763,6 @@
           <t>Programa ATSOURCE - Olam 1.pdf</t>
         </is>
       </c>
-      <c r="I114" t="n">
-        <v>61</v>
-      </c>
-      <c r="J114" t="n">
-        <v>28</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="inlineStr"/>
-      <c r="O114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5809,17 +4801,6 @@
           <t>Programa ATSOURCE - Olam 1.pdf</t>
         </is>
       </c>
-      <c r="I115" t="n">
-        <v>62</v>
-      </c>
-      <c r="J115" t="n">
-        <v>29</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="inlineStr"/>
-      <c r="O115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5858,17 +4839,6 @@
           <t>Programa ATSOURCE - Olam 1.pdf</t>
         </is>
       </c>
-      <c r="I116" t="n">
-        <v>63</v>
-      </c>
-      <c r="J116" t="n">
-        <v>30</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="inlineStr"/>
-      <c r="O116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5907,17 +4877,6 @@
           <t>Programa ATSOURCE - Olam 1.pdf</t>
         </is>
       </c>
-      <c r="I117" t="n">
-        <v>64</v>
-      </c>
-      <c r="J117" t="n">
-        <v>31</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
-      <c r="O117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5956,17 +4915,6 @@
           <t>Programa ATSOURCE - Olam 1.pdf</t>
         </is>
       </c>
-      <c r="I118" t="n">
-        <v>65</v>
-      </c>
-      <c r="J118" t="n">
-        <v>32</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="inlineStr"/>
-      <c r="O118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -6005,17 +4953,6 @@
           <t>Programa ATSOURCE - Olam 1.pdf</t>
         </is>
       </c>
-      <c r="I119" t="n">
-        <v>66</v>
-      </c>
-      <c r="J119" t="n">
-        <v>33</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="inlineStr"/>
-      <c r="O119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -6054,19 +4991,6 @@
           <t>nf58911planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I120" t="n">
-        <v>67</v>
-      </c>
-      <c r="J120" t="n">
-        <v>34</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0</v>
-      </c>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="inlineStr"/>
-      <c r="O120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -6105,19 +5029,6 @@
           <t>nf58911planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I121" t="n">
-        <v>68</v>
-      </c>
-      <c r="J121" t="n">
-        <v>35</v>
-      </c>
-      <c r="K121" t="n">
-        <v>1</v>
-      </c>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="inlineStr"/>
-      <c r="O121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -6156,19 +5067,6 @@
           <t>nf58911planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I122" t="n">
-        <v>69</v>
-      </c>
-      <c r="J122" t="n">
-        <v>36</v>
-      </c>
-      <c r="K122" t="n">
-        <v>2</v>
-      </c>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="inlineStr"/>
-      <c r="O122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -6207,19 +5105,6 @@
           <t>nf58911planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I123" t="n">
-        <v>70</v>
-      </c>
-      <c r="J123" t="n">
-        <v>37</v>
-      </c>
-      <c r="K123" t="n">
-        <v>3</v>
-      </c>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="inlineStr"/>
-      <c r="O123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -6258,19 +5143,6 @@
           <t>nf58911planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I124" t="n">
-        <v>71</v>
-      </c>
-      <c r="J124" t="n">
-        <v>38</v>
-      </c>
-      <c r="K124" t="n">
-        <v>4</v>
-      </c>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="inlineStr"/>
-      <c r="O124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -6309,19 +5181,6 @@
           <t>nf58911planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I125" t="n">
-        <v>72</v>
-      </c>
-      <c r="J125" t="n">
-        <v>39</v>
-      </c>
-      <c r="K125" t="n">
-        <v>5</v>
-      </c>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="inlineStr"/>
-      <c r="O125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -6360,19 +5219,6 @@
           <t>nf58911planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I126" t="n">
-        <v>73</v>
-      </c>
-      <c r="J126" t="n">
-        <v>40</v>
-      </c>
-      <c r="K126" t="n">
-        <v>6</v>
-      </c>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="inlineStr"/>
-      <c r="O126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -6411,19 +5257,6 @@
           <t>nf58911planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I127" t="n">
-        <v>74</v>
-      </c>
-      <c r="J127" t="n">
-        <v>41</v>
-      </c>
-      <c r="K127" t="n">
-        <v>7</v>
-      </c>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="inlineStr"/>
-      <c r="O127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -6462,19 +5295,6 @@
           <t>nf58911planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I128" t="n">
-        <v>75</v>
-      </c>
-      <c r="J128" t="n">
-        <v>42</v>
-      </c>
-      <c r="K128" t="n">
-        <v>8</v>
-      </c>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="inlineStr"/>
-      <c r="O128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -6513,19 +5333,6 @@
           <t>nf58911planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I129" t="n">
-        <v>76</v>
-      </c>
-      <c r="J129" t="n">
-        <v>43</v>
-      </c>
-      <c r="K129" t="n">
-        <v>9</v>
-      </c>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="inlineStr"/>
-      <c r="O129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -6564,19 +5371,6 @@
           <t>nf58911planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I130" t="n">
-        <v>77</v>
-      </c>
-      <c r="J130" t="n">
-        <v>44</v>
-      </c>
-      <c r="K130" t="n">
-        <v>10</v>
-      </c>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="inlineStr"/>
-      <c r="O130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -6615,19 +5409,6 @@
           <t>nf58911planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I131" t="n">
-        <v>78</v>
-      </c>
-      <c r="J131" t="n">
-        <v>45</v>
-      </c>
-      <c r="K131" t="n">
-        <v>11</v>
-      </c>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="inlineStr"/>
-      <c r="O131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -6666,19 +5447,6 @@
           <t>nf58911planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I132" t="n">
-        <v>79</v>
-      </c>
-      <c r="J132" t="n">
-        <v>46</v>
-      </c>
-      <c r="K132" t="n">
-        <v>12</v>
-      </c>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="inlineStr"/>
-      <c r="O132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -6717,19 +5485,6 @@
           <t>nf58911planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I133" t="n">
-        <v>80</v>
-      </c>
-      <c r="J133" t="n">
-        <v>47</v>
-      </c>
-      <c r="K133" t="n">
-        <v>13</v>
-      </c>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
-      <c r="N133" t="inlineStr"/>
-      <c r="O133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -6768,19 +5523,6 @@
           <t>nf58911planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I134" t="n">
-        <v>81</v>
-      </c>
-      <c r="J134" t="n">
-        <v>48</v>
-      </c>
-      <c r="K134" t="n">
-        <v>14</v>
-      </c>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
-      <c r="N134" t="inlineStr"/>
-      <c r="O134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -6819,19 +5561,6 @@
           <t>nf58911planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I135" t="n">
-        <v>82</v>
-      </c>
-      <c r="J135" t="n">
-        <v>49</v>
-      </c>
-      <c r="K135" t="n">
-        <v>15</v>
-      </c>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr"/>
-      <c r="N135" t="inlineStr"/>
-      <c r="O135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -6870,19 +5599,6 @@
           <t>nf58911planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I136" t="n">
-        <v>83</v>
-      </c>
-      <c r="J136" t="n">
-        <v>50</v>
-      </c>
-      <c r="K136" t="n">
-        <v>16</v>
-      </c>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr"/>
-      <c r="N136" t="inlineStr"/>
-      <c r="O136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -6921,19 +5637,6 @@
           <t>nf58911planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I137" t="n">
-        <v>84</v>
-      </c>
-      <c r="J137" t="n">
-        <v>51</v>
-      </c>
-      <c r="K137" t="n">
-        <v>17</v>
-      </c>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr"/>
-      <c r="N137" t="inlineStr"/>
-      <c r="O137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -6972,19 +5675,6 @@
           <t>nf58911planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I138" t="n">
-        <v>85</v>
-      </c>
-      <c r="J138" t="n">
-        <v>52</v>
-      </c>
-      <c r="K138" t="n">
-        <v>18</v>
-      </c>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr"/>
-      <c r="N138" t="inlineStr"/>
-      <c r="O138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -7023,19 +5713,6 @@
           <t>nf58911planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I139" t="n">
-        <v>86</v>
-      </c>
-      <c r="J139" t="n">
-        <v>53</v>
-      </c>
-      <c r="K139" t="n">
-        <v>19</v>
-      </c>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr"/>
-      <c r="N139" t="inlineStr"/>
-      <c r="O139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -7074,19 +5751,6 @@
           <t>nf58911planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I140" t="n">
-        <v>87</v>
-      </c>
-      <c r="J140" t="n">
-        <v>54</v>
-      </c>
-      <c r="K140" t="n">
-        <v>20</v>
-      </c>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr"/>
-      <c r="N140" t="inlineStr"/>
-      <c r="O140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -7125,19 +5789,6 @@
           <t>nf58911planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I141" t="n">
-        <v>88</v>
-      </c>
-      <c r="J141" t="n">
-        <v>55</v>
-      </c>
-      <c r="K141" t="n">
-        <v>21</v>
-      </c>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr"/>
-      <c r="N141" t="inlineStr"/>
-      <c r="O141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -7176,19 +5827,6 @@
           <t>nf58911planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I142" t="n">
-        <v>89</v>
-      </c>
-      <c r="J142" t="n">
-        <v>56</v>
-      </c>
-      <c r="K142" t="n">
-        <v>22</v>
-      </c>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr"/>
-      <c r="N142" t="inlineStr"/>
-      <c r="O142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -7227,19 +5865,6 @@
           <t>nf58911planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I143" t="n">
-        <v>90</v>
-      </c>
-      <c r="J143" t="n">
-        <v>57</v>
-      </c>
-      <c r="K143" t="n">
-        <v>23</v>
-      </c>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="inlineStr"/>
-      <c r="N143" t="inlineStr"/>
-      <c r="O143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -7278,19 +5903,6 @@
           <t>nf58911planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I144" t="n">
-        <v>91</v>
-      </c>
-      <c r="J144" t="n">
-        <v>58</v>
-      </c>
-      <c r="K144" t="n">
-        <v>24</v>
-      </c>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
-      <c r="N144" t="inlineStr"/>
-      <c r="O144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -7329,21 +5941,6 @@
           <t>nf58910lanilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I145" t="n">
-        <v>92</v>
-      </c>
-      <c r="J145" t="n">
-        <v>59</v>
-      </c>
-      <c r="K145" t="n">
-        <v>25</v>
-      </c>
-      <c r="L145" t="n">
-        <v>0</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
-      <c r="N145" t="inlineStr"/>
-      <c r="O145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -7382,21 +5979,6 @@
           <t>nf58910lanilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I146" t="n">
-        <v>93</v>
-      </c>
-      <c r="J146" t="n">
-        <v>60</v>
-      </c>
-      <c r="K146" t="n">
-        <v>26</v>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
-      <c r="N146" t="inlineStr"/>
-      <c r="O146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -7435,21 +6017,6 @@
           <t>nf58910lanilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I147" t="n">
-        <v>94</v>
-      </c>
-      <c r="J147" t="n">
-        <v>61</v>
-      </c>
-      <c r="K147" t="n">
-        <v>27</v>
-      </c>
-      <c r="L147" t="n">
-        <v>2</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
-      <c r="N147" t="inlineStr"/>
-      <c r="O147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -7488,21 +6055,6 @@
           <t>nf58910lanilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I148" t="n">
-        <v>95</v>
-      </c>
-      <c r="J148" t="n">
-        <v>62</v>
-      </c>
-      <c r="K148" t="n">
-        <v>28</v>
-      </c>
-      <c r="L148" t="n">
-        <v>3</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
-      <c r="N148" t="inlineStr"/>
-      <c r="O148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -7541,21 +6093,6 @@
           <t>nf58910lanilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I149" t="n">
-        <v>96</v>
-      </c>
-      <c r="J149" t="n">
-        <v>63</v>
-      </c>
-      <c r="K149" t="n">
-        <v>29</v>
-      </c>
-      <c r="L149" t="n">
-        <v>4</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
-      <c r="N149" t="inlineStr"/>
-      <c r="O149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -7594,21 +6131,6 @@
           <t>nf58910lanilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I150" t="n">
-        <v>97</v>
-      </c>
-      <c r="J150" t="n">
-        <v>64</v>
-      </c>
-      <c r="K150" t="n">
-        <v>30</v>
-      </c>
-      <c r="L150" t="n">
-        <v>5</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
-      <c r="N150" t="inlineStr"/>
-      <c r="O150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -7647,21 +6169,6 @@
           <t>nf58910lanilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I151" t="n">
-        <v>98</v>
-      </c>
-      <c r="J151" t="n">
-        <v>65</v>
-      </c>
-      <c r="K151" t="n">
-        <v>31</v>
-      </c>
-      <c r="L151" t="n">
-        <v>6</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
-      <c r="N151" t="inlineStr"/>
-      <c r="O151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -7700,21 +6207,6 @@
           <t>nf58910lanilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I152" t="n">
-        <v>99</v>
-      </c>
-      <c r="J152" t="n">
-        <v>66</v>
-      </c>
-      <c r="K152" t="n">
-        <v>32</v>
-      </c>
-      <c r="L152" t="n">
-        <v>7</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
-      <c r="N152" t="inlineStr"/>
-      <c r="O152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -7753,21 +6245,6 @@
           <t>nf58910lanilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I153" t="n">
-        <v>100</v>
-      </c>
-      <c r="J153" t="n">
-        <v>67</v>
-      </c>
-      <c r="K153" t="n">
-        <v>33</v>
-      </c>
-      <c r="L153" t="n">
-        <v>8</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
-      <c r="N153" t="inlineStr"/>
-      <c r="O153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -7806,21 +6283,6 @@
           <t>nf58910lanilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I154" t="n">
-        <v>101</v>
-      </c>
-      <c r="J154" t="n">
-        <v>68</v>
-      </c>
-      <c r="K154" t="n">
-        <v>34</v>
-      </c>
-      <c r="L154" t="n">
-        <v>9</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
-      <c r="N154" t="inlineStr"/>
-      <c r="O154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -7859,21 +6321,6 @@
           <t>nf58910lanilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I155" t="n">
-        <v>102</v>
-      </c>
-      <c r="J155" t="n">
-        <v>69</v>
-      </c>
-      <c r="K155" t="n">
-        <v>35</v>
-      </c>
-      <c r="L155" t="n">
-        <v>10</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
-      <c r="N155" t="inlineStr"/>
-      <c r="O155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -7912,21 +6359,6 @@
           <t>nf58910lanilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I156" t="n">
-        <v>103</v>
-      </c>
-      <c r="J156" t="n">
-        <v>70</v>
-      </c>
-      <c r="K156" t="n">
-        <v>36</v>
-      </c>
-      <c r="L156" t="n">
-        <v>11</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
-      <c r="N156" t="inlineStr"/>
-      <c r="O156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -7965,21 +6397,6 @@
           <t>nf58910lanilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I157" t="n">
-        <v>104</v>
-      </c>
-      <c r="J157" t="n">
-        <v>71</v>
-      </c>
-      <c r="K157" t="n">
-        <v>37</v>
-      </c>
-      <c r="L157" t="n">
-        <v>12</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
-      <c r="N157" t="inlineStr"/>
-      <c r="O157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -8018,21 +6435,6 @@
           <t>nf58910lanilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I158" t="n">
-        <v>105</v>
-      </c>
-      <c r="J158" t="n">
-        <v>72</v>
-      </c>
-      <c r="K158" t="n">
-        <v>38</v>
-      </c>
-      <c r="L158" t="n">
-        <v>13</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
-      <c r="N158" t="inlineStr"/>
-      <c r="O158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -8071,21 +6473,6 @@
           <t>nf58910lanilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I159" t="n">
-        <v>106</v>
-      </c>
-      <c r="J159" t="n">
-        <v>73</v>
-      </c>
-      <c r="K159" t="n">
-        <v>39</v>
-      </c>
-      <c r="L159" t="n">
-        <v>14</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
-      <c r="N159" t="inlineStr"/>
-      <c r="O159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -8124,21 +6511,6 @@
           <t>nf58910lanilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I160" t="n">
-        <v>107</v>
-      </c>
-      <c r="J160" t="n">
-        <v>74</v>
-      </c>
-      <c r="K160" t="n">
-        <v>40</v>
-      </c>
-      <c r="L160" t="n">
-        <v>15</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
-      <c r="N160" t="inlineStr"/>
-      <c r="O160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -8177,21 +6549,6 @@
           <t>nf58910lanilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I161" t="n">
-        <v>108</v>
-      </c>
-      <c r="J161" t="n">
-        <v>75</v>
-      </c>
-      <c r="K161" t="n">
-        <v>41</v>
-      </c>
-      <c r="L161" t="n">
-        <v>16</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
-      <c r="N161" t="inlineStr"/>
-      <c r="O161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -8230,21 +6587,6 @@
           <t>nf58910lanilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I162" t="n">
-        <v>109</v>
-      </c>
-      <c r="J162" t="n">
-        <v>76</v>
-      </c>
-      <c r="K162" t="n">
-        <v>42</v>
-      </c>
-      <c r="L162" t="n">
-        <v>17</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
-      <c r="N162" t="inlineStr"/>
-      <c r="O162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -8283,21 +6625,6 @@
           <t>nf58910lanilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I163" t="n">
-        <v>110</v>
-      </c>
-      <c r="J163" t="n">
-        <v>77</v>
-      </c>
-      <c r="K163" t="n">
-        <v>43</v>
-      </c>
-      <c r="L163" t="n">
-        <v>18</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
-      <c r="N163" t="inlineStr"/>
-      <c r="O163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -8336,21 +6663,6 @@
           <t>nf58910lanilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I164" t="n">
-        <v>111</v>
-      </c>
-      <c r="J164" t="n">
-        <v>78</v>
-      </c>
-      <c r="K164" t="n">
-        <v>44</v>
-      </c>
-      <c r="L164" t="n">
-        <v>19</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-      <c r="N164" t="inlineStr"/>
-      <c r="O164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -8389,21 +6701,6 @@
           <t>nf58910lanilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I165" t="n">
-        <v>112</v>
-      </c>
-      <c r="J165" t="n">
-        <v>79</v>
-      </c>
-      <c r="K165" t="n">
-        <v>45</v>
-      </c>
-      <c r="L165" t="n">
-        <v>20</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
-      <c r="N165" t="inlineStr"/>
-      <c r="O165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -8442,23 +6739,6 @@
           <t>nf58825planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I166" t="n">
-        <v>113</v>
-      </c>
-      <c r="J166" t="n">
-        <v>80</v>
-      </c>
-      <c r="K166" t="n">
-        <v>46</v>
-      </c>
-      <c r="L166" t="n">
-        <v>21</v>
-      </c>
-      <c r="M166" t="n">
-        <v>0</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
-      <c r="O166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -8497,23 +6777,6 @@
           <t>nf58825planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I167" t="n">
-        <v>114</v>
-      </c>
-      <c r="J167" t="n">
-        <v>81</v>
-      </c>
-      <c r="K167" t="n">
-        <v>47</v>
-      </c>
-      <c r="L167" t="n">
-        <v>22</v>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
-      <c r="O167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -8552,23 +6815,6 @@
           <t>nf58825planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I168" t="n">
-        <v>115</v>
-      </c>
-      <c r="J168" t="n">
-        <v>82</v>
-      </c>
-      <c r="K168" t="n">
-        <v>48</v>
-      </c>
-      <c r="L168" t="n">
-        <v>23</v>
-      </c>
-      <c r="M168" t="n">
-        <v>2</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
-      <c r="O168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -8607,23 +6853,6 @@
           <t>nf58825planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I169" t="n">
-        <v>116</v>
-      </c>
-      <c r="J169" t="n">
-        <v>83</v>
-      </c>
-      <c r="K169" t="n">
-        <v>49</v>
-      </c>
-      <c r="L169" t="n">
-        <v>24</v>
-      </c>
-      <c r="M169" t="n">
-        <v>3</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
-      <c r="O169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -8662,23 +6891,6 @@
           <t>nf58825planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I170" t="n">
-        <v>117</v>
-      </c>
-      <c r="J170" t="n">
-        <v>84</v>
-      </c>
-      <c r="K170" t="n">
-        <v>50</v>
-      </c>
-      <c r="L170" t="n">
-        <v>25</v>
-      </c>
-      <c r="M170" t="n">
-        <v>4</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
-      <c r="O170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -8717,23 +6929,6 @@
           <t>nf58825planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I171" t="n">
-        <v>118</v>
-      </c>
-      <c r="J171" t="n">
-        <v>85</v>
-      </c>
-      <c r="K171" t="n">
-        <v>51</v>
-      </c>
-      <c r="L171" t="n">
-        <v>26</v>
-      </c>
-      <c r="M171" t="n">
-        <v>5</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
-      <c r="O171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -8772,23 +6967,6 @@
           <t>nf58825planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I172" t="n">
-        <v>119</v>
-      </c>
-      <c r="J172" t="n">
-        <v>86</v>
-      </c>
-      <c r="K172" t="n">
-        <v>52</v>
-      </c>
-      <c r="L172" t="n">
-        <v>27</v>
-      </c>
-      <c r="M172" t="n">
-        <v>6</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
-      <c r="O172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -8827,23 +7005,6 @@
           <t>nf58825planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I173" t="n">
-        <v>120</v>
-      </c>
-      <c r="J173" t="n">
-        <v>87</v>
-      </c>
-      <c r="K173" t="n">
-        <v>53</v>
-      </c>
-      <c r="L173" t="n">
-        <v>28</v>
-      </c>
-      <c r="M173" t="n">
-        <v>7</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
-      <c r="O173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -8882,23 +7043,6 @@
           <t>nf58825planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I174" t="n">
-        <v>121</v>
-      </c>
-      <c r="J174" t="n">
-        <v>88</v>
-      </c>
-      <c r="K174" t="n">
-        <v>54</v>
-      </c>
-      <c r="L174" t="n">
-        <v>29</v>
-      </c>
-      <c r="M174" t="n">
-        <v>8</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
-      <c r="O174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -8937,23 +7081,6 @@
           <t>nf58825planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I175" t="n">
-        <v>122</v>
-      </c>
-      <c r="J175" t="n">
-        <v>89</v>
-      </c>
-      <c r="K175" t="n">
-        <v>55</v>
-      </c>
-      <c r="L175" t="n">
-        <v>30</v>
-      </c>
-      <c r="M175" t="n">
-        <v>9</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
-      <c r="O175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -8992,23 +7119,6 @@
           <t>nf58825planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I176" t="n">
-        <v>123</v>
-      </c>
-      <c r="J176" t="n">
-        <v>90</v>
-      </c>
-      <c r="K176" t="n">
-        <v>56</v>
-      </c>
-      <c r="L176" t="n">
-        <v>31</v>
-      </c>
-      <c r="M176" t="n">
-        <v>10</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
-      <c r="O176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -9047,23 +7157,6 @@
           <t>nf58825planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I177" t="n">
-        <v>124</v>
-      </c>
-      <c r="J177" t="n">
-        <v>91</v>
-      </c>
-      <c r="K177" t="n">
-        <v>57</v>
-      </c>
-      <c r="L177" t="n">
-        <v>32</v>
-      </c>
-      <c r="M177" t="n">
-        <v>11</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
-      <c r="O177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -9102,23 +7195,6 @@
           <t>nf58825planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I178" t="n">
-        <v>125</v>
-      </c>
-      <c r="J178" t="n">
-        <v>92</v>
-      </c>
-      <c r="K178" t="n">
-        <v>58</v>
-      </c>
-      <c r="L178" t="n">
-        <v>33</v>
-      </c>
-      <c r="M178" t="n">
-        <v>12</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
-      <c r="O178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -9157,23 +7233,6 @@
           <t>nf58825planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I179" t="n">
-        <v>126</v>
-      </c>
-      <c r="J179" t="n">
-        <v>93</v>
-      </c>
-      <c r="K179" t="n">
-        <v>59</v>
-      </c>
-      <c r="L179" t="n">
-        <v>34</v>
-      </c>
-      <c r="M179" t="n">
-        <v>13</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
-      <c r="O179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -9212,23 +7271,6 @@
           <t>nf58825planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I180" t="n">
-        <v>127</v>
-      </c>
-      <c r="J180" t="n">
-        <v>94</v>
-      </c>
-      <c r="K180" t="n">
-        <v>60</v>
-      </c>
-      <c r="L180" t="n">
-        <v>35</v>
-      </c>
-      <c r="M180" t="n">
-        <v>14</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
-      <c r="O180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -9267,23 +7309,6 @@
           <t>nf58825planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I181" t="n">
-        <v>128</v>
-      </c>
-      <c r="J181" t="n">
-        <v>95</v>
-      </c>
-      <c r="K181" t="n">
-        <v>61</v>
-      </c>
-      <c r="L181" t="n">
-        <v>36</v>
-      </c>
-      <c r="M181" t="n">
-        <v>15</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
-      <c r="O181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -9322,23 +7347,6 @@
           <t>nf58825planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I182" t="n">
-        <v>129</v>
-      </c>
-      <c r="J182" t="n">
-        <v>96</v>
-      </c>
-      <c r="K182" t="n">
-        <v>62</v>
-      </c>
-      <c r="L182" t="n">
-        <v>37</v>
-      </c>
-      <c r="M182" t="n">
-        <v>16</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
-      <c r="O182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -9377,23 +7385,6 @@
           <t>nf58825planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I183" t="n">
-        <v>130</v>
-      </c>
-      <c r="J183" t="n">
-        <v>97</v>
-      </c>
-      <c r="K183" t="n">
-        <v>63</v>
-      </c>
-      <c r="L183" t="n">
-        <v>38</v>
-      </c>
-      <c r="M183" t="n">
-        <v>17</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
-      <c r="O183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -9432,23 +7423,6 @@
           <t>nf58825planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I184" t="n">
-        <v>131</v>
-      </c>
-      <c r="J184" t="n">
-        <v>98</v>
-      </c>
-      <c r="K184" t="n">
-        <v>64</v>
-      </c>
-      <c r="L184" t="n">
-        <v>39</v>
-      </c>
-      <c r="M184" t="n">
-        <v>18</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
-      <c r="O184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -9487,23 +7461,6 @@
           <t>nf58825planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I185" t="n">
-        <v>132</v>
-      </c>
-      <c r="J185" t="n">
-        <v>99</v>
-      </c>
-      <c r="K185" t="n">
-        <v>65</v>
-      </c>
-      <c r="L185" t="n">
-        <v>40</v>
-      </c>
-      <c r="M185" t="n">
-        <v>19</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
-      <c r="O185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -9542,25 +7499,6 @@
           <t>nf58824planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I186" t="n">
-        <v>133</v>
-      </c>
-      <c r="J186" t="n">
-        <v>100</v>
-      </c>
-      <c r="K186" t="n">
-        <v>66</v>
-      </c>
-      <c r="L186" t="n">
-        <v>41</v>
-      </c>
-      <c r="M186" t="n">
-        <v>20</v>
-      </c>
-      <c r="N186" t="n">
-        <v>0</v>
-      </c>
-      <c r="O186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -9599,25 +7537,6 @@
           <t>nf58824planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I187" t="n">
-        <v>134</v>
-      </c>
-      <c r="J187" t="n">
-        <v>101</v>
-      </c>
-      <c r="K187" t="n">
-        <v>67</v>
-      </c>
-      <c r="L187" t="n">
-        <v>42</v>
-      </c>
-      <c r="M187" t="n">
-        <v>21</v>
-      </c>
-      <c r="N187" t="n">
-        <v>1</v>
-      </c>
-      <c r="O187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -9656,25 +7575,6 @@
           <t>nf58824planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I188" t="n">
-        <v>135</v>
-      </c>
-      <c r="J188" t="n">
-        <v>102</v>
-      </c>
-      <c r="K188" t="n">
-        <v>68</v>
-      </c>
-      <c r="L188" t="n">
-        <v>43</v>
-      </c>
-      <c r="M188" t="n">
-        <v>22</v>
-      </c>
-      <c r="N188" t="n">
-        <v>2</v>
-      </c>
-      <c r="O188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -9713,25 +7613,6 @@
           <t>nf58824planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I189" t="n">
-        <v>136</v>
-      </c>
-      <c r="J189" t="n">
-        <v>103</v>
-      </c>
-      <c r="K189" t="n">
-        <v>69</v>
-      </c>
-      <c r="L189" t="n">
-        <v>44</v>
-      </c>
-      <c r="M189" t="n">
-        <v>23</v>
-      </c>
-      <c r="N189" t="n">
-        <v>3</v>
-      </c>
-      <c r="O189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -9770,25 +7651,6 @@
           <t>nf58824planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I190" t="n">
-        <v>137</v>
-      </c>
-      <c r="J190" t="n">
-        <v>104</v>
-      </c>
-      <c r="K190" t="n">
-        <v>70</v>
-      </c>
-      <c r="L190" t="n">
-        <v>45</v>
-      </c>
-      <c r="M190" t="n">
-        <v>24</v>
-      </c>
-      <c r="N190" t="n">
-        <v>4</v>
-      </c>
-      <c r="O190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -9827,25 +7689,6 @@
           <t>nf58824planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I191" t="n">
-        <v>138</v>
-      </c>
-      <c r="J191" t="n">
-        <v>105</v>
-      </c>
-      <c r="K191" t="n">
-        <v>71</v>
-      </c>
-      <c r="L191" t="n">
-        <v>46</v>
-      </c>
-      <c r="M191" t="n">
-        <v>25</v>
-      </c>
-      <c r="N191" t="n">
-        <v>5</v>
-      </c>
-      <c r="O191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -9884,25 +7727,6 @@
           <t>nf58824planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I192" t="n">
-        <v>139</v>
-      </c>
-      <c r="J192" t="n">
-        <v>106</v>
-      </c>
-      <c r="K192" t="n">
-        <v>72</v>
-      </c>
-      <c r="L192" t="n">
-        <v>47</v>
-      </c>
-      <c r="M192" t="n">
-        <v>26</v>
-      </c>
-      <c r="N192" t="n">
-        <v>6</v>
-      </c>
-      <c r="O192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -9941,25 +7765,6 @@
           <t>nf58824planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I193" t="n">
-        <v>140</v>
-      </c>
-      <c r="J193" t="n">
-        <v>107</v>
-      </c>
-      <c r="K193" t="n">
-        <v>73</v>
-      </c>
-      <c r="L193" t="n">
-        <v>48</v>
-      </c>
-      <c r="M193" t="n">
-        <v>27</v>
-      </c>
-      <c r="N193" t="n">
-        <v>7</v>
-      </c>
-      <c r="O193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -9998,25 +7803,6 @@
           <t>nf58824planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I194" t="n">
-        <v>141</v>
-      </c>
-      <c r="J194" t="n">
-        <v>108</v>
-      </c>
-      <c r="K194" t="n">
-        <v>74</v>
-      </c>
-      <c r="L194" t="n">
-        <v>49</v>
-      </c>
-      <c r="M194" t="n">
-        <v>28</v>
-      </c>
-      <c r="N194" t="n">
-        <v>8</v>
-      </c>
-      <c r="O194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -10055,25 +7841,6 @@
           <t>nf58824planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I195" t="n">
-        <v>142</v>
-      </c>
-      <c r="J195" t="n">
-        <v>109</v>
-      </c>
-      <c r="K195" t="n">
-        <v>75</v>
-      </c>
-      <c r="L195" t="n">
-        <v>50</v>
-      </c>
-      <c r="M195" t="n">
-        <v>29</v>
-      </c>
-      <c r="N195" t="n">
-        <v>9</v>
-      </c>
-      <c r="O195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -10112,25 +7879,6 @@
           <t>nf58824planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I196" t="n">
-        <v>143</v>
-      </c>
-      <c r="J196" t="n">
-        <v>110</v>
-      </c>
-      <c r="K196" t="n">
-        <v>76</v>
-      </c>
-      <c r="L196" t="n">
-        <v>51</v>
-      </c>
-      <c r="M196" t="n">
-        <v>30</v>
-      </c>
-      <c r="N196" t="n">
-        <v>10</v>
-      </c>
-      <c r="O196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -10169,25 +7917,6 @@
           <t>nf58824planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I197" t="n">
-        <v>144</v>
-      </c>
-      <c r="J197" t="n">
-        <v>111</v>
-      </c>
-      <c r="K197" t="n">
-        <v>77</v>
-      </c>
-      <c r="L197" t="n">
-        <v>52</v>
-      </c>
-      <c r="M197" t="n">
-        <v>31</v>
-      </c>
-      <c r="N197" t="n">
-        <v>11</v>
-      </c>
-      <c r="O197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -10226,25 +7955,6 @@
           <t>nf58824planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I198" t="n">
-        <v>145</v>
-      </c>
-      <c r="J198" t="n">
-        <v>112</v>
-      </c>
-      <c r="K198" t="n">
-        <v>78</v>
-      </c>
-      <c r="L198" t="n">
-        <v>53</v>
-      </c>
-      <c r="M198" t="n">
-        <v>32</v>
-      </c>
-      <c r="N198" t="n">
-        <v>12</v>
-      </c>
-      <c r="O198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -10283,25 +7993,6 @@
           <t>nf58824planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I199" t="n">
-        <v>146</v>
-      </c>
-      <c r="J199" t="n">
-        <v>113</v>
-      </c>
-      <c r="K199" t="n">
-        <v>79</v>
-      </c>
-      <c r="L199" t="n">
-        <v>54</v>
-      </c>
-      <c r="M199" t="n">
-        <v>33</v>
-      </c>
-      <c r="N199" t="n">
-        <v>13</v>
-      </c>
-      <c r="O199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -10340,25 +8031,6 @@
           <t>nf58824planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I200" t="n">
-        <v>147</v>
-      </c>
-      <c r="J200" t="n">
-        <v>114</v>
-      </c>
-      <c r="K200" t="n">
-        <v>80</v>
-      </c>
-      <c r="L200" t="n">
-        <v>55</v>
-      </c>
-      <c r="M200" t="n">
-        <v>34</v>
-      </c>
-      <c r="N200" t="n">
-        <v>14</v>
-      </c>
-      <c r="O200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -10397,25 +8069,6 @@
           <t>nf58824planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I201" t="n">
-        <v>148</v>
-      </c>
-      <c r="J201" t="n">
-        <v>115</v>
-      </c>
-      <c r="K201" t="n">
-        <v>81</v>
-      </c>
-      <c r="L201" t="n">
-        <v>56</v>
-      </c>
-      <c r="M201" t="n">
-        <v>35</v>
-      </c>
-      <c r="N201" t="n">
-        <v>15</v>
-      </c>
-      <c r="O201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -10454,25 +8107,6 @@
           <t>nf58824planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I202" t="n">
-        <v>149</v>
-      </c>
-      <c r="J202" t="n">
-        <v>116</v>
-      </c>
-      <c r="K202" t="n">
-        <v>82</v>
-      </c>
-      <c r="L202" t="n">
-        <v>57</v>
-      </c>
-      <c r="M202" t="n">
-        <v>36</v>
-      </c>
-      <c r="N202" t="n">
-        <v>16</v>
-      </c>
-      <c r="O202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -10511,25 +8145,6 @@
           <t>nf58824planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I203" t="n">
-        <v>150</v>
-      </c>
-      <c r="J203" t="n">
-        <v>117</v>
-      </c>
-      <c r="K203" t="n">
-        <v>83</v>
-      </c>
-      <c r="L203" t="n">
-        <v>58</v>
-      </c>
-      <c r="M203" t="n">
-        <v>37</v>
-      </c>
-      <c r="N203" t="n">
-        <v>17</v>
-      </c>
-      <c r="O203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -10568,27 +8183,6 @@
           <t>nf 59184planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I204" t="n">
-        <v>151</v>
-      </c>
-      <c r="J204" t="n">
-        <v>118</v>
-      </c>
-      <c r="K204" t="n">
-        <v>84</v>
-      </c>
-      <c r="L204" t="n">
-        <v>59</v>
-      </c>
-      <c r="M204" t="n">
-        <v>38</v>
-      </c>
-      <c r="N204" t="n">
-        <v>18</v>
-      </c>
-      <c r="O204" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -10627,27 +8221,6 @@
           <t>nf 59184planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I205" t="n">
-        <v>152</v>
-      </c>
-      <c r="J205" t="n">
-        <v>119</v>
-      </c>
-      <c r="K205" t="n">
-        <v>85</v>
-      </c>
-      <c r="L205" t="n">
-        <v>60</v>
-      </c>
-      <c r="M205" t="n">
-        <v>39</v>
-      </c>
-      <c r="N205" t="n">
-        <v>19</v>
-      </c>
-      <c r="O205" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -10686,27 +8259,6 @@
           <t>nf 59184planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I206" t="n">
-        <v>153</v>
-      </c>
-      <c r="J206" t="n">
-        <v>120</v>
-      </c>
-      <c r="K206" t="n">
-        <v>86</v>
-      </c>
-      <c r="L206" t="n">
-        <v>61</v>
-      </c>
-      <c r="M206" t="n">
-        <v>40</v>
-      </c>
-      <c r="N206" t="n">
-        <v>20</v>
-      </c>
-      <c r="O206" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -10745,27 +8297,6 @@
           <t>nf 59184planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I207" t="n">
-        <v>154</v>
-      </c>
-      <c r="J207" t="n">
-        <v>121</v>
-      </c>
-      <c r="K207" t="n">
-        <v>87</v>
-      </c>
-      <c r="L207" t="n">
-        <v>62</v>
-      </c>
-      <c r="M207" t="n">
-        <v>41</v>
-      </c>
-      <c r="N207" t="n">
-        <v>21</v>
-      </c>
-      <c r="O207" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -10804,27 +8335,6 @@
           <t>nf 59184planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I208" t="n">
-        <v>155</v>
-      </c>
-      <c r="J208" t="n">
-        <v>122</v>
-      </c>
-      <c r="K208" t="n">
-        <v>88</v>
-      </c>
-      <c r="L208" t="n">
-        <v>63</v>
-      </c>
-      <c r="M208" t="n">
-        <v>42</v>
-      </c>
-      <c r="N208" t="n">
-        <v>22</v>
-      </c>
-      <c r="O208" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -10863,27 +8373,6 @@
           <t>nf 59184planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I209" t="n">
-        <v>156</v>
-      </c>
-      <c r="J209" t="n">
-        <v>123</v>
-      </c>
-      <c r="K209" t="n">
-        <v>89</v>
-      </c>
-      <c r="L209" t="n">
-        <v>64</v>
-      </c>
-      <c r="M209" t="n">
-        <v>43</v>
-      </c>
-      <c r="N209" t="n">
-        <v>23</v>
-      </c>
-      <c r="O209" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -10922,27 +8411,6 @@
           <t>nf 59184planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I210" t="n">
-        <v>157</v>
-      </c>
-      <c r="J210" t="n">
-        <v>124</v>
-      </c>
-      <c r="K210" t="n">
-        <v>90</v>
-      </c>
-      <c r="L210" t="n">
-        <v>65</v>
-      </c>
-      <c r="M210" t="n">
-        <v>44</v>
-      </c>
-      <c r="N210" t="n">
-        <v>24</v>
-      </c>
-      <c r="O210" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -10981,27 +8449,6 @@
           <t>nf 59184planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I211" t="n">
-        <v>158</v>
-      </c>
-      <c r="J211" t="n">
-        <v>125</v>
-      </c>
-      <c r="K211" t="n">
-        <v>91</v>
-      </c>
-      <c r="L211" t="n">
-        <v>66</v>
-      </c>
-      <c r="M211" t="n">
-        <v>45</v>
-      </c>
-      <c r="N211" t="n">
-        <v>25</v>
-      </c>
-      <c r="O211" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -11040,27 +8487,6 @@
           <t>nf 59184planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I212" t="n">
-        <v>159</v>
-      </c>
-      <c r="J212" t="n">
-        <v>126</v>
-      </c>
-      <c r="K212" t="n">
-        <v>92</v>
-      </c>
-      <c r="L212" t="n">
-        <v>67</v>
-      </c>
-      <c r="M212" t="n">
-        <v>46</v>
-      </c>
-      <c r="N212" t="n">
-        <v>26</v>
-      </c>
-      <c r="O212" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -11099,27 +8525,6 @@
           <t>nf 59184planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I213" t="n">
-        <v>160</v>
-      </c>
-      <c r="J213" t="n">
-        <v>127</v>
-      </c>
-      <c r="K213" t="n">
-        <v>93</v>
-      </c>
-      <c r="L213" t="n">
-        <v>68</v>
-      </c>
-      <c r="M213" t="n">
-        <v>47</v>
-      </c>
-      <c r="N213" t="n">
-        <v>27</v>
-      </c>
-      <c r="O213" t="n">
-        <v>9</v>
-      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -11158,27 +8563,6 @@
           <t>nf 59184planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I214" t="n">
-        <v>161</v>
-      </c>
-      <c r="J214" t="n">
-        <v>128</v>
-      </c>
-      <c r="K214" t="n">
-        <v>94</v>
-      </c>
-      <c r="L214" t="n">
-        <v>69</v>
-      </c>
-      <c r="M214" t="n">
-        <v>48</v>
-      </c>
-      <c r="N214" t="n">
-        <v>28</v>
-      </c>
-      <c r="O214" t="n">
-        <v>10</v>
-      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -11217,27 +8601,6 @@
           <t>nf 59184planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I215" t="n">
-        <v>162</v>
-      </c>
-      <c r="J215" t="n">
-        <v>129</v>
-      </c>
-      <c r="K215" t="n">
-        <v>95</v>
-      </c>
-      <c r="L215" t="n">
-        <v>70</v>
-      </c>
-      <c r="M215" t="n">
-        <v>49</v>
-      </c>
-      <c r="N215" t="n">
-        <v>29</v>
-      </c>
-      <c r="O215" t="n">
-        <v>11</v>
-      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -11276,27 +8639,6 @@
           <t>nf 59184planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I216" t="n">
-        <v>163</v>
-      </c>
-      <c r="J216" t="n">
-        <v>130</v>
-      </c>
-      <c r="K216" t="n">
-        <v>96</v>
-      </c>
-      <c r="L216" t="n">
-        <v>71</v>
-      </c>
-      <c r="M216" t="n">
-        <v>50</v>
-      </c>
-      <c r="N216" t="n">
-        <v>30</v>
-      </c>
-      <c r="O216" t="n">
-        <v>12</v>
-      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -11335,27 +8677,6 @@
           <t>nf 59184planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I217" t="n">
-        <v>164</v>
-      </c>
-      <c r="J217" t="n">
-        <v>131</v>
-      </c>
-      <c r="K217" t="n">
-        <v>97</v>
-      </c>
-      <c r="L217" t="n">
-        <v>72</v>
-      </c>
-      <c r="M217" t="n">
-        <v>51</v>
-      </c>
-      <c r="N217" t="n">
-        <v>31</v>
-      </c>
-      <c r="O217" t="n">
-        <v>13</v>
-      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -11394,27 +8715,6 @@
           <t>nf 59184planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I218" t="n">
-        <v>165</v>
-      </c>
-      <c r="J218" t="n">
-        <v>132</v>
-      </c>
-      <c r="K218" t="n">
-        <v>98</v>
-      </c>
-      <c r="L218" t="n">
-        <v>73</v>
-      </c>
-      <c r="M218" t="n">
-        <v>52</v>
-      </c>
-      <c r="N218" t="n">
-        <v>32</v>
-      </c>
-      <c r="O218" t="n">
-        <v>14</v>
-      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -11453,27 +8753,6 @@
           <t>nf 59184planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I219" t="n">
-        <v>166</v>
-      </c>
-      <c r="J219" t="n">
-        <v>133</v>
-      </c>
-      <c r="K219" t="n">
-        <v>99</v>
-      </c>
-      <c r="L219" t="n">
-        <v>74</v>
-      </c>
-      <c r="M219" t="n">
-        <v>53</v>
-      </c>
-      <c r="N219" t="n">
-        <v>33</v>
-      </c>
-      <c r="O219" t="n">
-        <v>15</v>
-      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -11512,27 +8791,6 @@
           <t>nf 59184planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I220" t="n">
-        <v>167</v>
-      </c>
-      <c r="J220" t="n">
-        <v>134</v>
-      </c>
-      <c r="K220" t="n">
-        <v>100</v>
-      </c>
-      <c r="L220" t="n">
-        <v>75</v>
-      </c>
-      <c r="M220" t="n">
-        <v>54</v>
-      </c>
-      <c r="N220" t="n">
-        <v>34</v>
-      </c>
-      <c r="O220" t="n">
-        <v>16</v>
-      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -11571,27 +8829,6 @@
           <t>nf 59184planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I221" t="n">
-        <v>168</v>
-      </c>
-      <c r="J221" t="n">
-        <v>135</v>
-      </c>
-      <c r="K221" t="n">
-        <v>101</v>
-      </c>
-      <c r="L221" t="n">
-        <v>76</v>
-      </c>
-      <c r="M221" t="n">
-        <v>55</v>
-      </c>
-      <c r="N221" t="n">
-        <v>35</v>
-      </c>
-      <c r="O221" t="n">
-        <v>17</v>
-      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -11630,27 +8867,6 @@
           <t>nf 59184planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I222" t="n">
-        <v>169</v>
-      </c>
-      <c r="J222" t="n">
-        <v>136</v>
-      </c>
-      <c r="K222" t="n">
-        <v>102</v>
-      </c>
-      <c r="L222" t="n">
-        <v>77</v>
-      </c>
-      <c r="M222" t="n">
-        <v>56</v>
-      </c>
-      <c r="N222" t="n">
-        <v>36</v>
-      </c>
-      <c r="O222" t="n">
-        <v>18</v>
-      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -11689,27 +8905,6 @@
           <t>nf 59184planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I223" t="n">
-        <v>170</v>
-      </c>
-      <c r="J223" t="n">
-        <v>137</v>
-      </c>
-      <c r="K223" t="n">
-        <v>103</v>
-      </c>
-      <c r="L223" t="n">
-        <v>78</v>
-      </c>
-      <c r="M223" t="n">
-        <v>57</v>
-      </c>
-      <c r="N223" t="n">
-        <v>37</v>
-      </c>
-      <c r="O223" t="n">
-        <v>19</v>
-      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -11748,27 +8943,6 @@
           <t>nf 59184planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I224" t="n">
-        <v>171</v>
-      </c>
-      <c r="J224" t="n">
-        <v>138</v>
-      </c>
-      <c r="K224" t="n">
-        <v>104</v>
-      </c>
-      <c r="L224" t="n">
-        <v>79</v>
-      </c>
-      <c r="M224" t="n">
-        <v>58</v>
-      </c>
-      <c r="N224" t="n">
-        <v>38</v>
-      </c>
-      <c r="O224" t="n">
-        <v>20</v>
-      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -11807,27 +8981,6 @@
           <t>nf 59184planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I225" t="n">
-        <v>172</v>
-      </c>
-      <c r="J225" t="n">
-        <v>139</v>
-      </c>
-      <c r="K225" t="n">
-        <v>105</v>
-      </c>
-      <c r="L225" t="n">
-        <v>80</v>
-      </c>
-      <c r="M225" t="n">
-        <v>59</v>
-      </c>
-      <c r="N225" t="n">
-        <v>39</v>
-      </c>
-      <c r="O225" t="n">
-        <v>21</v>
-      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -11866,27 +9019,6 @@
           <t>nf 59184planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I226" t="n">
-        <v>173</v>
-      </c>
-      <c r="J226" t="n">
-        <v>140</v>
-      </c>
-      <c r="K226" t="n">
-        <v>106</v>
-      </c>
-      <c r="L226" t="n">
-        <v>81</v>
-      </c>
-      <c r="M226" t="n">
-        <v>60</v>
-      </c>
-      <c r="N226" t="n">
-        <v>40</v>
-      </c>
-      <c r="O226" t="n">
-        <v>22</v>
-      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -11925,27 +9057,6 @@
           <t>nf 59184planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I227" t="n">
-        <v>174</v>
-      </c>
-      <c r="J227" t="n">
-        <v>141</v>
-      </c>
-      <c r="K227" t="n">
-        <v>107</v>
-      </c>
-      <c r="L227" t="n">
-        <v>82</v>
-      </c>
-      <c r="M227" t="n">
-        <v>61</v>
-      </c>
-      <c r="N227" t="n">
-        <v>41</v>
-      </c>
-      <c r="O227" t="n">
-        <v>23</v>
-      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -11984,27 +9095,6 @@
           <t>nf 59184planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I228" t="n">
-        <v>175</v>
-      </c>
-      <c r="J228" t="n">
-        <v>142</v>
-      </c>
-      <c r="K228" t="n">
-        <v>108</v>
-      </c>
-      <c r="L228" t="n">
-        <v>83</v>
-      </c>
-      <c r="M228" t="n">
-        <v>62</v>
-      </c>
-      <c r="N228" t="n">
-        <v>42</v>
-      </c>
-      <c r="O228" t="n">
-        <v>24</v>
-      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -12043,27 +9133,6 @@
           <t>nf 59184planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I229" t="n">
-        <v>176</v>
-      </c>
-      <c r="J229" t="n">
-        <v>143</v>
-      </c>
-      <c r="K229" t="n">
-        <v>109</v>
-      </c>
-      <c r="L229" t="n">
-        <v>84</v>
-      </c>
-      <c r="M229" t="n">
-        <v>63</v>
-      </c>
-      <c r="N229" t="n">
-        <v>43</v>
-      </c>
-      <c r="O229" t="n">
-        <v>25</v>
-      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -12102,27 +9171,6 @@
           <t>nf 59184planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I230" t="n">
-        <v>177</v>
-      </c>
-      <c r="J230" t="n">
-        <v>144</v>
-      </c>
-      <c r="K230" t="n">
-        <v>110</v>
-      </c>
-      <c r="L230" t="n">
-        <v>85</v>
-      </c>
-      <c r="M230" t="n">
-        <v>64</v>
-      </c>
-      <c r="N230" t="n">
-        <v>44</v>
-      </c>
-      <c r="O230" t="n">
-        <v>26</v>
-      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -12161,27 +9209,6 @@
           <t>nf 59184planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I231" t="n">
-        <v>178</v>
-      </c>
-      <c r="J231" t="n">
-        <v>145</v>
-      </c>
-      <c r="K231" t="n">
-        <v>111</v>
-      </c>
-      <c r="L231" t="n">
-        <v>86</v>
-      </c>
-      <c r="M231" t="n">
-        <v>65</v>
-      </c>
-      <c r="N231" t="n">
-        <v>45</v>
-      </c>
-      <c r="O231" t="n">
-        <v>27</v>
-      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -12220,27 +9247,6 @@
           <t>nf 59184planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I232" t="n">
-        <v>179</v>
-      </c>
-      <c r="J232" t="n">
-        <v>146</v>
-      </c>
-      <c r="K232" t="n">
-        <v>112</v>
-      </c>
-      <c r="L232" t="n">
-        <v>87</v>
-      </c>
-      <c r="M232" t="n">
-        <v>66</v>
-      </c>
-      <c r="N232" t="n">
-        <v>46</v>
-      </c>
-      <c r="O232" t="n">
-        <v>28</v>
-      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -12279,27 +9285,6 @@
           <t>nf 59184planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I233" t="n">
-        <v>180</v>
-      </c>
-      <c r="J233" t="n">
-        <v>147</v>
-      </c>
-      <c r="K233" t="n">
-        <v>113</v>
-      </c>
-      <c r="L233" t="n">
-        <v>88</v>
-      </c>
-      <c r="M233" t="n">
-        <v>67</v>
-      </c>
-      <c r="N233" t="n">
-        <v>47</v>
-      </c>
-      <c r="O233" t="n">
-        <v>29</v>
-      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -12338,27 +9323,6 @@
           <t>nf 59184planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I234" t="n">
-        <v>181</v>
-      </c>
-      <c r="J234" t="n">
-        <v>148</v>
-      </c>
-      <c r="K234" t="n">
-        <v>114</v>
-      </c>
-      <c r="L234" t="n">
-        <v>89</v>
-      </c>
-      <c r="M234" t="n">
-        <v>68</v>
-      </c>
-      <c r="N234" t="n">
-        <v>48</v>
-      </c>
-      <c r="O234" t="n">
-        <v>30</v>
-      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -12397,27 +9361,6 @@
           <t>nf 59184planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I235" t="n">
-        <v>182</v>
-      </c>
-      <c r="J235" t="n">
-        <v>149</v>
-      </c>
-      <c r="K235" t="n">
-        <v>115</v>
-      </c>
-      <c r="L235" t="n">
-        <v>90</v>
-      </c>
-      <c r="M235" t="n">
-        <v>69</v>
-      </c>
-      <c r="N235" t="n">
-        <v>49</v>
-      </c>
-      <c r="O235" t="n">
-        <v>31</v>
-      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -12456,27 +9399,6 @@
           <t>nf 59184planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I236" t="n">
-        <v>183</v>
-      </c>
-      <c r="J236" t="n">
-        <v>150</v>
-      </c>
-      <c r="K236" t="n">
-        <v>116</v>
-      </c>
-      <c r="L236" t="n">
-        <v>91</v>
-      </c>
-      <c r="M236" t="n">
-        <v>70</v>
-      </c>
-      <c r="N236" t="n">
-        <v>50</v>
-      </c>
-      <c r="O236" t="n">
-        <v>32</v>
-      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -12515,27 +9437,6 @@
           <t>nf 59184planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I237" t="n">
-        <v>184</v>
-      </c>
-      <c r="J237" t="n">
-        <v>151</v>
-      </c>
-      <c r="K237" t="n">
-        <v>117</v>
-      </c>
-      <c r="L237" t="n">
-        <v>92</v>
-      </c>
-      <c r="M237" t="n">
-        <v>71</v>
-      </c>
-      <c r="N237" t="n">
-        <v>51</v>
-      </c>
-      <c r="O237" t="n">
-        <v>33</v>
-      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -12574,27 +9475,6 @@
           <t>nf 59184planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I238" t="n">
-        <v>185</v>
-      </c>
-      <c r="J238" t="n">
-        <v>152</v>
-      </c>
-      <c r="K238" t="n">
-        <v>118</v>
-      </c>
-      <c r="L238" t="n">
-        <v>93</v>
-      </c>
-      <c r="M238" t="n">
-        <v>72</v>
-      </c>
-      <c r="N238" t="n">
-        <v>52</v>
-      </c>
-      <c r="O238" t="n">
-        <v>34</v>
-      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -12633,27 +9513,6 @@
           <t>nf 59184planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I239" t="n">
-        <v>186</v>
-      </c>
-      <c r="J239" t="n">
-        <v>153</v>
-      </c>
-      <c r="K239" t="n">
-        <v>119</v>
-      </c>
-      <c r="L239" t="n">
-        <v>94</v>
-      </c>
-      <c r="M239" t="n">
-        <v>73</v>
-      </c>
-      <c r="N239" t="n">
-        <v>53</v>
-      </c>
-      <c r="O239" t="n">
-        <v>35</v>
-      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -12692,27 +9551,6 @@
           <t>nf 59184planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I240" t="n">
-        <v>187</v>
-      </c>
-      <c r="J240" t="n">
-        <v>154</v>
-      </c>
-      <c r="K240" t="n">
-        <v>120</v>
-      </c>
-      <c r="L240" t="n">
-        <v>95</v>
-      </c>
-      <c r="M240" t="n">
-        <v>74</v>
-      </c>
-      <c r="N240" t="n">
-        <v>54</v>
-      </c>
-      <c r="O240" t="n">
-        <v>36</v>
-      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -12751,26 +9589,1449 @@
           <t>nf 59184planilharastreabilidade.pdf</t>
         </is>
       </c>
-      <c r="I241" t="n">
-        <v>188</v>
-      </c>
-      <c r="J241" t="n">
-        <v>155</v>
-      </c>
-      <c r="K241" t="n">
-        <v>121</v>
-      </c>
-      <c r="L241" t="n">
-        <v>96</v>
-      </c>
-      <c r="M241" t="n">
-        <v>75</v>
-      </c>
-      <c r="N241" t="n">
-        <v>55</v>
-      </c>
-      <c r="O241" t="n">
-        <v>37</v>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>22/07/2022</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>867.311.235-44</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Nivaldo Da Silva Santos</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>59.054</t>
+        </is>
+      </c>
+      <c r="F242" t="n">
+        <v>38</v>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>29220704473588000151550010000590541005905411</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>nf 59184planilharastreabilidade.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>22/07/2022</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>655.834.005-44</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Norma Magalhaes H Costa E Outros</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>59.053</t>
+        </is>
+      </c>
+      <c r="F243" t="n">
+        <v>129</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>29220704473588000151550010000590531005905317</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>nf 59184planilharastreabilidade.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>22/07/2022</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>448.153.105-30</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Antonio Ribeiro Dos Santos</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>59.052</t>
+        </is>
+      </c>
+      <c r="F244" t="n">
+        <v>92</v>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>29220704473588000151550010000590521005905212</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>nf 59184planilharastreabilidade.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>22/07/2022</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>582.891.865-68</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Joel Ferreira Brito</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>59.051</t>
+        </is>
+      </c>
+      <c r="F245" t="n">
+        <v>211</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>29220704473588000151550010000590511005905118</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>nf 59184planilharastreabilidade.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>22/07/2022</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>911.542.435-91</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Orlando Rocha Santos</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>59.044</t>
+        </is>
+      </c>
+      <c r="F246" t="n">
+        <v>93</v>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>29220704473588000151550010000590441005904419</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>nf 59184planilharastreabilidade.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>22/07/2022</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>019.845.935-10</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Carlos Da Conceiçao Santos</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>59.039</t>
+        </is>
+      </c>
+      <c r="F247" t="n">
+        <v>331</v>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>29220704473588000151550010000590391005903919</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>nf 59184planilharastreabilidade.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>22/07/2022</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>471.552.645-04</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Otavio Santos</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>59.038</t>
+        </is>
+      </c>
+      <c r="F248" t="n">
+        <v>140</v>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>29220704473588000151550010000590381005903814</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>nf 59184planilharastreabilidade.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>22/07/2022</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>097.957.105-75</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Maciel Sacramento Dos Santos</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>59.037</t>
+        </is>
+      </c>
+      <c r="F249" t="n">
+        <v>51</v>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>29220704473588000151550010000590371005903710</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>nf 59184planilharastreabilidade.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>22/07/2022</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>050.208.615-70</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Marcio Jesus De Carvalho</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>59.033</t>
+        </is>
+      </c>
+      <c r="F250" t="n">
+        <v>158</v>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>29220704473588000151550010000590331005903311</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>nf 59184planilharastreabilidade.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>22/07/2022</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>077.595.575-23</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Joel Conceição Costa</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>59.032</t>
+        </is>
+      </c>
+      <c r="F251" t="n">
+        <v>122</v>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>29220704473588000151550010000590321005903217</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>nf 59184planilharastreabilidade.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>22/07/2022</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>019.009.415-03</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Jovane Santana Dos  Santos</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>59.031</t>
+        </is>
+      </c>
+      <c r="F252" t="n">
+        <v>48</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>29220704473588000151550010000590311005903112</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>nf 59184planilharastreabilidade.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>22/07/2022</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>024.492.725-18</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Jose Ailton Dos Santos Nascimento</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>59.030</t>
+        </is>
+      </c>
+      <c r="F253" t="n">
+        <v>48</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>29220704473588000151550010000590301005903018</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>nf 59184planilharastreabilidade.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>22/07/2022</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>945.271.995-87</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Josue Bispo Dos Santos</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>59.028</t>
+        </is>
+      </c>
+      <c r="F254" t="n">
+        <v>148</v>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>29220704473588000151550010000590281005902811</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>nf 59184planilharastreabilidade.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>22/07/2022</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>941.151.335-20</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Djalma Jesus De Eca</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>59.025</t>
+        </is>
+      </c>
+      <c r="F255" t="n">
+        <v>101</v>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>29220704473588000151550010000590251005902518</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>nf 59184planilharastreabilidade.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>22/07/2022</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>548.132.395-87</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Antonio Alves De Jesus</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>59.024</t>
+        </is>
+      </c>
+      <c r="F256" t="n">
+        <v>124</v>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>29220704473588000151550010000590241005902413</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>nf 59184planilharastreabilidade.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>22/07/2022</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>743.010.475-49</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Fabiola Regina P. Souza</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>59.020</t>
+        </is>
+      </c>
+      <c r="F257" t="n">
+        <v>225</v>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>29220704473588000151550010000590201005902015</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>nf 59184planilharastreabilidade.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>22/07/2022</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>297.886.778-78</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Domingos Vidal Dos Santos</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>59.019</t>
+        </is>
+      </c>
+      <c r="F258" t="n">
+        <v>306</v>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>29220704473588000151550010000590191005901913</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>nf 59184planilharastreabilidade.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>22/07/2022</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>993.877.435-00</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Marcio De Souza Magalhaes</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>59.018</t>
+        </is>
+      </c>
+      <c r="F259" t="n">
+        <v>210</v>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>29220704473588000151550010000590181005901819</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>nf 59184planilharastreabilidade.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>22/07/2022</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>531.495.305-63</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Renata De Souza Magalhaes</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>59.017</t>
+        </is>
+      </c>
+      <c r="F260" t="n">
+        <v>210</v>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>29220704473588000151550010000590171005901714</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>nf 59184planilharastreabilidade.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>22/07/2022</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>443.341.925-72</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Cassio De Souza Magalhaes</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>59.016</t>
+        </is>
+      </c>
+      <c r="F261" t="n">
+        <v>211</v>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>29220704473588000151550010000590161005901610</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>nf 59184planilharastreabilidade.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>22/07/2022</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>961.158.315-04</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Pedro Vieira Dos Santos</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>59.015</t>
+        </is>
+      </c>
+      <c r="F262" t="n">
+        <v>238</v>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>29220704473588000151550010000590151005901515</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>nf 59184planilharastreabilidade.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>22/07/2022</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>002.159.705-78</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Eduardo Nelson De Almeida Santos</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>59.014</t>
+        </is>
+      </c>
+      <c r="F263" t="n">
+        <v>644</v>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>29220704473588000151550010000590141005901410</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>nf 59184planilharastreabilidade.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>22/07/2022</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>434.749.265-00</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Jose Carlos Pereira Santos</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>59.013</t>
+        </is>
+      </c>
+      <c r="F264" t="n">
+        <v>300</v>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>29220704473588000151550010000590131005901316</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>nf 59184planilharastreabilidade.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>22/07/2022</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>073.929.505-50</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Tiago Nascimento Santos</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>59.012</t>
+        </is>
+      </c>
+      <c r="F265" t="n">
+        <v>115</v>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>29220704473588000151550010000590121005901211</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>nf 59184planilharastreabilidade.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>22/07/2022</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>027.481.365-35</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>Valdemar Santos</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>59.011</t>
+        </is>
+      </c>
+      <c r="F266" t="n">
+        <v>131</v>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>29220704473588000151550010000590111005901117</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>nf 59184planilharastreabilidade.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>22/07/2022</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>232.490.995-20</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Eudilia Maria  Menezes</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>59.010</t>
+        </is>
+      </c>
+      <c r="F267" t="n">
+        <v>546</v>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>29220704473588000151550010000590101005901012</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>nf 59184planilharastreabilidade.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>20/07/2022</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>061.036.855-91</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>Manoel Juncal Pazos</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>59.001</t>
+        </is>
+      </c>
+      <c r="F268" t="n">
+        <v>80</v>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>29220704473588000151550010000590011005900114</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>nf 59184planilharastreabilidade.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>20/07/2022</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>977.349.695-34</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Sergio Dos Santos Silva</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>58.995</t>
+        </is>
+      </c>
+      <c r="F269" t="n">
+        <v>150</v>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>29220704473588000151550010000589951005899516</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>nf 59184planilharastreabilidade.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>20/07/2022</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>019.116.155-13</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>Oziel De Jesus Santos</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>58.994</t>
+        </is>
+      </c>
+      <c r="F270" t="n">
+        <v>180</v>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>29220704473588000151550010000589941005899411</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>nf 59184planilharastreabilidade.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>20/07/2022</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>443.341.925-72</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Cassio De Souza Magalhaes</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>58.993</t>
+        </is>
+      </c>
+      <c r="F271" t="n">
+        <v>165</v>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>29220704473588000151550010000589931005899317</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>nf 59184planilharastreabilidade.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>20/07/2022</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>321.148.695-04</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Geraldo Da Silva Costa Junior</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>58.992</t>
+        </is>
+      </c>
+      <c r="F272" t="n">
+        <v>165</v>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>29220704473588000151550010000589921005899212</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>nf 59184planilharastreabilidade.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>19/07/2022</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>000.637.465-49</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Israel De Almeida Mendonça</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>58.976</t>
+        </is>
+      </c>
+      <c r="F273" t="n">
+        <v>241</v>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>29220704473588000151550010000589761005897615</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>nf 59184planilharastreabilidade.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>19/07/2022</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>549.295.205-68</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Sandoval Silva Bastos</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>58.975</t>
+        </is>
+      </c>
+      <c r="F274" t="n">
+        <v>95</v>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>29220704473588000151550010000589751005897510</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>nf 59184planilharastreabilidade.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>19/07/2022</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>885.576.775-53</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>Cosme Reis Dos Santos</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>58.974</t>
+        </is>
+      </c>
+      <c r="F275" t="n">
+        <v>21</v>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>29220704473588000151550010000589741005897416</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>nf 59184planilharastreabilidade.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>19/07/2022</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>996.145.025-68</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Jose Santos Reis</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>58.973</t>
+        </is>
+      </c>
+      <c r="F276" t="n">
+        <v>126</v>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>29220704473588000151550010000589731005897311</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>nf 59184planilharastreabilidade.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>18/07/2022</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>002.159.705-78</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>Eduardo Nelson De Almeida Santos</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>58.967</t>
+        </is>
+      </c>
+      <c r="F277" t="n">
+        <v>645</v>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>29220704473588000151550010000589671005896717</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>nf 59184planilharastreabilidade.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>18/07/2022</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>434.740.985-00</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Ednaldo Francisco Castro</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>58.965</t>
+        </is>
+      </c>
+      <c r="F278" t="n">
+        <v>80</v>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>29220704473588000151550010000589651005896518</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>nf 59184planilharastreabilidade.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>15/07/2022</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>443.341.925-72</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Cassio De Souza Magalhaes</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>58.913</t>
+        </is>
+      </c>
+      <c r="F279" t="n">
+        <v>15</v>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>29220704473588000151550010000589131005891315</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>nf 59184planilharastreabilidade.pdf</t>
+        </is>
       </c>
     </row>
   </sheetData>
